--- a/teaching/traditional_assets/database/data/sweden/sweden_shipbuilding_marine.xlsx
+++ b/teaching/traditional_assets/database/data/sweden/sweden_shipbuilding_marine.xlsx
@@ -591,118 +591,115 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.1486</v>
+        <v>-0.02650000000000001</v>
       </c>
       <c r="G2">
-        <v>-0.2915105746169551</v>
+        <v>0.1311455108359133</v>
       </c>
       <c r="H2">
-        <v>-0.2919069988701909</v>
+        <v>0.1191331269349845</v>
       </c>
       <c r="I2">
-        <v>-0.1998374660561733</v>
+        <v>-0.3497213622291021</v>
       </c>
       <c r="J2">
-        <v>-0.1998374660561733</v>
+        <v>-0.3497213622291021</v>
       </c>
       <c r="K2">
-        <v>-17.555</v>
+        <v>-13.823</v>
       </c>
       <c r="L2">
-        <v>-0.3479613882777348</v>
+        <v>-0.2853044375644994</v>
       </c>
       <c r="M2">
-        <v>110.1</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>1.383165829145729</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>-6.271717459413273</v>
+        <v>-0</v>
       </c>
       <c r="P2">
-        <v>110.1</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>1.383165829145729</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>-6.271717459413273</v>
+        <v>-0</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
       <c r="U2">
-        <v>20.6</v>
+        <v>17.192</v>
       </c>
       <c r="V2">
-        <v>0.2587939698492462</v>
+        <v>0.252515312192471</v>
       </c>
       <c r="W2">
-        <v>-0.0377915559492176</v>
+        <v>-1.076712328767123</v>
       </c>
       <c r="X2">
-        <v>0.0563598993386934</v>
+        <v>0.05053975211698089</v>
       </c>
       <c r="Y2">
-        <v>-0.094151455287911</v>
+        <v>-1.127252080884104</v>
       </c>
       <c r="Z2">
-        <v>0.2352400846754264</v>
+        <v>0.2493720662109858</v>
       </c>
       <c r="AA2">
-        <v>-0.5437006723180356</v>
+        <v>-1.145945945945946</v>
       </c>
       <c r="AB2">
-        <v>0.05604452711143594</v>
+        <v>0.04634885448143908</v>
       </c>
       <c r="AC2">
-        <v>-0.5996318636677207</v>
+        <v>-1.192294800427385</v>
       </c>
       <c r="AD2">
-        <v>2.653</v>
+        <v>3.076</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>2.653</v>
+        <v>3.076</v>
       </c>
       <c r="AG2">
-        <v>-17.947</v>
+        <v>-14.116</v>
       </c>
       <c r="AH2">
-        <v>0.03225414270604111</v>
+        <v>0.04322713922342923</v>
       </c>
       <c r="AI2">
-        <v>0.01234596627080154</v>
+        <v>0.01481174731428737</v>
       </c>
       <c r="AJ2">
-        <v>-0.2910969458096119</v>
+        <v>-0.261567254062668</v>
       </c>
       <c r="AK2">
-        <v>-0.09237317796261223</v>
+        <v>-0.07410712879499792</v>
       </c>
       <c r="AL2">
-        <v>0.83</v>
+        <v>0.788</v>
       </c>
       <c r="AM2">
-        <v>-1.191</v>
+        <v>0.4710000000000001</v>
       </c>
       <c r="AN2">
-        <v>-0.9205412907702986</v>
+        <v>-0.3910998092816275</v>
       </c>
       <c r="AO2">
-        <v>-12.14698795180723</v>
+        <v>-21.50253807106599</v>
       </c>
       <c r="AP2">
-        <v>6.227272727272729</v>
+        <v>1.794787031150668</v>
       </c>
       <c r="AQ2">
-        <v>8.465155331654074</v>
+        <v>-35.97452229299362</v>
       </c>
     </row>
     <row r="3">
@@ -722,118 +719,115 @@
         </is>
       </c>
       <c r="D3">
-        <v>-0.334</v>
+        <v>-0.25</v>
       </c>
       <c r="G3">
-        <v>-0.2874692874692874</v>
+        <v>0.2714617169373549</v>
       </c>
       <c r="H3">
-        <v>-0.2874692874692874</v>
+        <v>0.2714617169373549</v>
       </c>
       <c r="I3">
-        <v>-0.1476658476658476</v>
+        <v>-0.234338747099768</v>
       </c>
       <c r="J3">
-        <v>-0.1476658476658476</v>
+        <v>-0.234338747099768</v>
       </c>
       <c r="K3">
-        <v>-12.8</v>
+        <v>-10.2</v>
       </c>
       <c r="L3">
-        <v>-0.3144963144963145</v>
+        <v>-0.2366589327146171</v>
       </c>
       <c r="M3">
-        <v>110.1</v>
+        <v>-0</v>
       </c>
       <c r="N3">
-        <v>1.47192513368984</v>
+        <v>-0</v>
       </c>
       <c r="O3">
-        <v>-8.601562499999998</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>110.1</v>
+        <v>-0</v>
       </c>
       <c r="Q3">
-        <v>1.47192513368984</v>
+        <v>-0</v>
       </c>
       <c r="R3">
-        <v>-8.601562499999998</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
       <c r="U3">
-        <v>20.5</v>
+        <v>17</v>
       </c>
       <c r="V3">
-        <v>0.2740641711229946</v>
+        <v>0.2627511591962906</v>
       </c>
       <c r="W3">
-        <v>-0.0377915559492176</v>
+        <v>-0.04843304843304843</v>
       </c>
       <c r="X3">
-        <v>0.05611591763992167</v>
+        <v>0.04557491649744751</v>
       </c>
       <c r="Y3">
-        <v>-0.09390747358913927</v>
+        <v>-0.09400796493049593</v>
       </c>
       <c r="Z3">
-        <v>0.1960500963391137</v>
+        <v>0.2264797376828653</v>
       </c>
       <c r="AA3">
-        <v>-0.02894990366088632</v>
+        <v>-0.05307297797208677</v>
       </c>
       <c r="AB3">
-        <v>0.05604452711143594</v>
+        <v>0.04535861760680459</v>
       </c>
       <c r="AC3">
-        <v>-0.08499443077232226</v>
+        <v>-0.09843159557889136</v>
       </c>
       <c r="AD3">
-        <v>0.204</v>
+        <v>0.5580000000000001</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.204</v>
+        <v>0.5580000000000001</v>
       </c>
       <c r="AG3">
-        <v>-20.296</v>
+        <v>-16.442</v>
       </c>
       <c r="AH3">
-        <v>0.00271985494106981</v>
+        <v>0.008550675779214808</v>
       </c>
       <c r="AI3">
-        <v>0.0009677235726077303</v>
+        <v>0.002749337301313573</v>
       </c>
       <c r="AJ3">
-        <v>-0.3723763393512403</v>
+        <v>-0.3407103485432467</v>
       </c>
       <c r="AK3">
-        <v>-0.1066504119724231</v>
+        <v>-0.08841781477537938</v>
       </c>
       <c r="AL3">
-        <v>0.412</v>
+        <v>0.34</v>
       </c>
       <c r="AM3">
-        <v>-1.608</v>
+        <v>0.05600000000000005</v>
       </c>
       <c r="AN3">
-        <v>0.1924528301886792</v>
+        <v>-0.4810344827586208</v>
       </c>
       <c r="AO3">
-        <v>-14.5873786407767</v>
+        <v>-29.70588235294117</v>
       </c>
       <c r="AP3">
-        <v>-19.14716981132075</v>
+        <v>14.17413793103448</v>
       </c>
       <c r="AQ3">
-        <v>3.737562189054726</v>
+        <v>-180.3571428571427</v>
       </c>
     </row>
     <row r="4">
@@ -844,7 +838,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MultiDocker Cargo Handling AB (publ) (NGM:MULT)</t>
+          <t>C Security Systems AB (publ) (NGM:CSEC)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -852,23 +846,26 @@
           <t>Shipbuilding &amp; Marine</t>
         </is>
       </c>
+      <c r="D4">
+        <v>0.197</v>
+      </c>
       <c r="G4">
-        <v>-0.2773722627737226</v>
+        <v>-1.911111111111111</v>
       </c>
       <c r="H4">
-        <v>-0.2773722627737226</v>
+        <v>-2.044444444444444</v>
       </c>
       <c r="I4">
-        <v>-0.3879040667361836</v>
+        <v>-2.355555555555556</v>
       </c>
       <c r="J4">
-        <v>-0.3879040667361836</v>
+        <v>-2.355555555555556</v>
       </c>
       <c r="K4">
-        <v>-4.4</v>
+        <v>-0.393</v>
       </c>
       <c r="L4">
-        <v>-0.4588112617309698</v>
+        <v>-2.183333333333334</v>
       </c>
       <c r="M4">
         <v>-0</v>
@@ -892,73 +889,73 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>0.076</v>
+        <v>0.022</v>
       </c>
       <c r="V4">
-        <v>0.03454545454545454</v>
+        <v>0.008835341365461847</v>
       </c>
       <c r="W4">
-        <v>-1.375</v>
+        <v>-1.076712328767123</v>
       </c>
       <c r="X4">
-        <v>0.08788618183433849</v>
+        <v>0.05053975211698089</v>
       </c>
       <c r="Y4">
-        <v>-1.462886181834338</v>
+        <v>-1.127252080884104</v>
       </c>
       <c r="Z4">
-        <v>1.401636948260742</v>
+        <v>0.4864864864864865</v>
       </c>
       <c r="AA4">
-        <v>-0.5437006723180356</v>
+        <v>-1.145945945945946</v>
       </c>
       <c r="AB4">
-        <v>0.05593119134968499</v>
+        <v>0.04634885448143908</v>
       </c>
       <c r="AC4">
-        <v>-0.5996318636677207</v>
+        <v>-1.192294800427385</v>
       </c>
       <c r="AD4">
-        <v>2.42</v>
+        <v>0.458</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>2.42</v>
+        <v>0.458</v>
       </c>
       <c r="AG4">
-        <v>2.344</v>
+        <v>0.436</v>
       </c>
       <c r="AH4">
-        <v>0.5238095238095238</v>
+        <v>0.155359565807327</v>
       </c>
       <c r="AI4">
-        <v>0.6558265582655827</v>
+        <v>0.1925988225399495</v>
       </c>
       <c r="AJ4">
-        <v>0.5158450704225351</v>
+        <v>0.1490088858509911</v>
       </c>
       <c r="AK4">
-        <v>0.6485888212506917</v>
+        <v>0.1850594227504244</v>
       </c>
       <c r="AL4">
-        <v>0.415</v>
+        <v>0.013</v>
       </c>
       <c r="AM4">
-        <v>0.415</v>
+        <v>-0.02</v>
       </c>
       <c r="AN4">
-        <v>-0.6703601108033241</v>
+        <v>-1.159493670886076</v>
       </c>
       <c r="AO4">
-        <v>-8.963855421686748</v>
+        <v>-32.61538461538461</v>
       </c>
       <c r="AP4">
-        <v>-0.6493074792243767</v>
+        <v>-1.10379746835443</v>
       </c>
       <c r="AQ4">
-        <v>-8.963855421686748</v>
+        <v>21.2</v>
       </c>
     </row>
     <row r="5">
@@ -969,7 +966,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>C Security Systems AB (publ) (NGM:CSEC)</t>
+          <t>MultiDocker Cargo Handling AB (publ) (NGM:MULT)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -977,26 +974,23 @@
           <t>Shipbuilding &amp; Marine</t>
         </is>
       </c>
-      <c r="D5">
-        <v>0.0368</v>
-      </c>
       <c r="G5">
-        <v>-2.15527950310559</v>
+        <v>-0.9675048355899419</v>
       </c>
       <c r="H5">
-        <v>-2.279503105590062</v>
+        <v>-1.075435203094778</v>
       </c>
       <c r="I5">
-        <v>-2.186335403726708</v>
+        <v>-1.241779497098646</v>
       </c>
       <c r="J5">
-        <v>-2.186335403726708</v>
+        <v>-1.241779497098646</v>
       </c>
       <c r="K5">
-        <v>-0.355</v>
+        <v>-3.23</v>
       </c>
       <c r="L5">
-        <v>-2.204968944099379</v>
+        <v>-0.6247582205029013</v>
       </c>
       <c r="M5">
         <v>-0</v>
@@ -1020,73 +1014,73 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>0.024</v>
+        <v>0.17</v>
       </c>
       <c r="V5">
-        <v>0.00923076923076923</v>
+        <v>0.1903695408734603</v>
       </c>
       <c r="W5">
-        <v>177.5</v>
+        <v>-2.543307086614173</v>
       </c>
       <c r="X5">
-        <v>0.0563598993386934</v>
+        <v>0.1106603728085735</v>
       </c>
       <c r="Y5">
-        <v>177.4436401006613</v>
+        <v>-2.653967459422747</v>
       </c>
       <c r="Z5">
-        <v>6.708333333333334</v>
+        <v>1.43054786939679</v>
       </c>
       <c r="AA5">
-        <v>-14.66666666666667</v>
+        <v>-1.776425013835086</v>
       </c>
       <c r="AB5">
-        <v>0.05606767222540997</v>
+        <v>0.04761057938301933</v>
       </c>
       <c r="AC5">
-        <v>-14.72273433889208</v>
+        <v>-1.824035593218105</v>
       </c>
       <c r="AD5">
-        <v>0.029</v>
+        <v>2.06</v>
       </c>
       <c r="AE5">
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.029</v>
+        <v>2.06</v>
       </c>
       <c r="AG5">
-        <v>0.005000000000000001</v>
+        <v>1.89</v>
       </c>
       <c r="AH5">
-        <v>0.01103081019399011</v>
+        <v>0.6975956654249915</v>
       </c>
       <c r="AI5">
-        <v>0.07360406091370558</v>
+        <v>0.881471972614463</v>
       </c>
       <c r="AJ5">
-        <v>0.001919385796545106</v>
+        <v>0.6791232482932087</v>
       </c>
       <c r="AK5">
-        <v>0.01351351351351352</v>
+        <v>0.8721735117674203</v>
       </c>
       <c r="AL5">
-        <v>0.003</v>
+        <v>0.435</v>
       </c>
       <c r="AM5">
-        <v>0.002</v>
+        <v>0.435</v>
       </c>
       <c r="AN5">
-        <v>-0.08734939759036145</v>
+        <v>-0.3264659270998416</v>
       </c>
       <c r="AO5">
-        <v>-117.3333333333333</v>
+        <v>-14.75862068965517</v>
       </c>
       <c r="AP5">
-        <v>-0.01506024096385542</v>
+        <v>-0.2995245641838352</v>
       </c>
       <c r="AQ5">
-        <v>-176</v>
+        <v>-14.75862068965517</v>
       </c>
     </row>
   </sheetData>
